--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FF8AAD-F90A-412B-8486-8F876D881646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C41157-E106-4696-B503-5AC1028CAA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Среднее</t>
+  </si>
+  <si>
+    <t>19.06.2024</t>
+  </si>
+  <si>
+    <t>Всего</t>
   </si>
 </sst>
 </file>
@@ -107,11 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,9 +462,10 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -469,8 +475,11 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,262 +488,220 @@
       </c>
       <c r="C2" s="2">
         <f>AVERAGE(B2:B101)</f>
-        <v>6706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6940.666666666667</v>
+      </c>
+      <c r="D2" s="2">
+        <f>SUM(B2:B100)</f>
+        <v>20822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>3985</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C41157-E106-4696-B503-5AC1028CAA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C745D7-511D-40BF-BCF3-25E600D89316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="4680" yWindow="615" windowWidth="25800" windowHeight="20985" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Всего</t>
+  </si>
+  <si>
+    <t>20.06.2024</t>
   </si>
 </sst>
 </file>
@@ -454,13 +457,13 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
@@ -487,12 +490,12 @@
         <v>9427</v>
       </c>
       <c r="C2" s="2">
-        <f>AVERAGE(B2:B101)</f>
-        <v>6940.666666666667</v>
+        <f>ROUND(AVERAGE(B2:B101),0)</f>
+        <v>7155</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B100)</f>
-        <v>20822</v>
+        <v>28621</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,12 +511,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>7410</v>
+        <v>7502</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7707</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C745D7-511D-40BF-BCF3-25E600D89316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910547E8-5A15-45CC-8EBA-C4346FD9F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="615" windowWidth="25800" windowHeight="20985" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="25485" yWindow="0" windowWidth="25800" windowHeight="20985" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>20.06.2024</t>
+  </si>
+  <si>
+    <t>21.06.2024</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,11 +494,11 @@
       </c>
       <c r="C2" s="2">
         <f>ROUND(AVERAGE(B2:B101),0)</f>
-        <v>7155</v>
+        <v>5818</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B100)</f>
-        <v>28621</v>
+        <v>29088</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,8 +526,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>467</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910547E8-5A15-45CC-8EBA-C4346FD9F762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19218BC3-2BED-4ABB-B229-C50E84AA8220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25485" yWindow="0" windowWidth="25800" windowHeight="20985" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -460,18 +460,18 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,14 +494,14 @@
       </c>
       <c r="C2" s="2">
         <f>ROUND(AVERAGE(B2:B101),0)</f>
-        <v>5818</v>
+        <v>6046</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B100)</f>
-        <v>29088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -509,7 +509,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -517,7 +517,7 @@
         <v>7502</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -525,195 +525,195 @@
         <v>7707</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\books\abyss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19218BC3-2BED-4ABB-B229-C50E84AA8220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE0DD4-93DB-4F56-81D9-CF43096FDDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>21.06.2024</t>
+  </si>
+  <si>
+    <t>24.06.2024</t>
+  </si>
+  <si>
+    <t>22.06.2024</t>
+  </si>
+  <si>
+    <t>23.06.2024</t>
   </si>
 </sst>
 </file>
@@ -460,18 +469,18 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -485,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,14 +503,14 @@
       </c>
       <c r="C2" s="2">
         <f>ROUND(AVERAGE(B2:B101),0)</f>
-        <v>6046</v>
+        <v>5622</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B100)</f>
-        <v>30230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -509,7 +518,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -517,7 +526,7 @@
         <v>7502</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -525,7 +534,7 @@
         <v>7707</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -533,187 +542,199 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE0DD4-93DB-4F56-81D9-CF43096FDDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3FBF61-241D-4697-B69B-031929C0F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25800" windowHeight="18840" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>23.06.2024</t>
+  </si>
+  <si>
+    <t>25.06.2024</t>
+  </si>
+  <si>
+    <t>26.06.2024</t>
+  </si>
+  <si>
+    <t>27.06.2024</t>
+  </si>
+  <si>
+    <t>28.06.2024</t>
+  </si>
+  <si>
+    <t>29.06.2024</t>
   </si>
 </sst>
 </file>
@@ -469,7 +484,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,11 +518,11 @@
       </c>
       <c r="C2" s="2">
         <f>ROUND(AVERAGE(B2:B101),0)</f>
-        <v>5622</v>
+        <v>4283</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B100)</f>
-        <v>44976</v>
+        <v>55682</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,24 +582,44 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4192</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6514</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3FBF61-241D-4697-B69B-031929C0F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36E8B72-9A2F-422C-B3D5-D89BC2D24AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="25800" windowHeight="18840" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>29.06.2024</t>
+  </si>
+  <si>
+    <t>30.06.2024</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,11 +521,11 @@
       </c>
       <c r="C2" s="2">
         <f>ROUND(AVERAGE(B2:B101),0)</f>
-        <v>4283</v>
+        <v>4281</v>
       </c>
       <c r="D2" s="2">
         <f>SUM(B2:B100)</f>
-        <v>55682</v>
+        <v>59940</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,8 +625,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4258</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36E8B72-9A2F-422C-B3D5-D89BC2D24AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44635C95-0462-40E8-846A-90469802FABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25800" windowHeight="18840" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -90,14 +112,52 @@
   </si>
   <si>
     <t>30.06.2024</t>
+  </si>
+  <si>
+    <t>01.06.2024</t>
+  </si>
+  <si>
+    <t>02.06.2024</t>
+  </si>
+  <si>
+    <t>03.06.2024</t>
+  </si>
+  <si>
+    <t>Топ (мин.)</t>
+  </si>
+  <si>
+    <t>Топ (макс.)</t>
+  </si>
+  <si>
+    <t>04.06.2024</t>
+  </si>
+  <si>
+    <t>05.06.2024</t>
+  </si>
+  <si>
+    <t>06.06.2024</t>
+  </si>
+  <si>
+    <t>07.06.2024</t>
+  </si>
+  <si>
+    <t>08.06.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -119,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,14 +202,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,301 +558,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>9427</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f>ROUND(AVERAGE(B2:B101),0)</f>
-        <v>4281</v>
-      </c>
-      <c r="D2" s="2">
+        <v>3749</v>
+      </c>
+      <c r="D2" s="3">
         <f>SUM(B2:B100)</f>
-        <v>59940</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+        <v>82467</v>
+      </c>
+      <c r="E2" s="1" cm="1">
+        <f t="array" ref="E2:E8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B100, B2:B100&lt;&gt;0)), 7)</f>
+        <v>1609</v>
+      </c>
+      <c r="F2" s="1" cm="1">
+        <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B100, B2:B100&lt;&gt;0), 1,-1), 7)</f>
+        <v>14746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>3985</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="1">
+        <v>3985</v>
+      </c>
+      <c r="F3" s="1">
+        <v>13113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>7502</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E4" s="1">
+        <v>4192</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>7707</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="1">
+        <v>4254</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1609</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="1">
+        <v>6514</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7502</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7707</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>14746</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>4192</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>6514</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B15" s="1">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>13113</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9418</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44635C95-0462-40E8-846A-90469802FABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AC3B5-B052-42BD-AE75-9B6C1C4A03C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="15465" windowHeight="15780" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -142,6 +143,18 @@
   </si>
   <si>
     <t>08.06.2024</t>
+  </si>
+  <si>
+    <t>09.06.2024</t>
+  </si>
+  <si>
+    <t>10.06.2024</t>
+  </si>
+  <si>
+    <t>11.06.2024</t>
+  </si>
+  <si>
+    <t>12.06.2024</t>
   </si>
 </sst>
 </file>
@@ -561,7 +574,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,11 +616,11 @@
       </c>
       <c r="C2" s="1">
         <f>ROUND(AVERAGE(B2:B101),0)</f>
-        <v>3749</v>
+        <v>3726</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(B2:B100)</f>
-        <v>82467</v>
+        <v>93149</v>
       </c>
       <c r="E2" s="1" cm="1">
         <f t="array" ref="E2:E8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B100, B2:B100&lt;&gt;0)), 7)</f>
@@ -643,7 +656,7 @@
         <v>4192</v>
       </c>
       <c r="F4" s="1">
-        <v>9427</v>
+        <v>10122</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,7 +670,7 @@
         <v>4254</v>
       </c>
       <c r="F5" s="1">
-        <v>9418</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,7 +684,7 @@
         <v>6514</v>
       </c>
       <c r="F6" s="1">
-        <v>7707</v>
+        <v>9427</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,7 +698,7 @@
         <v>7502</v>
       </c>
       <c r="F7" s="1">
-        <v>7502</v>
+        <v>7707</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -699,7 +712,7 @@
         <v>7707</v>
       </c>
       <c r="F8" s="1">
-        <v>6514</v>
+        <v>7502</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -819,23 +832,37 @@
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <v>9418</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10122</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AC3B5-B052-42BD-AE75-9B6C1C4A03C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0AFC04-9C9D-4DD8-9390-844C58D0B022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15465" windowHeight="15780" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -232,11 +231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -574,17 +574,17 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,19 +615,19 @@
         <v>9427</v>
       </c>
       <c r="C2" s="1">
-        <f>ROUND(AVERAGE(B2:B101),0)</f>
-        <v>3726</v>
+        <f>ROUND(AVERAGE(B2:B201),0)</f>
+        <v>3994</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(B2:B100)</f>
-        <v>93149</v>
+        <f>SUM(B2:B200)</f>
+        <v>103839</v>
       </c>
       <c r="E2" s="1" cm="1">
-        <f t="array" ref="E2:E8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B100, B2:B100&lt;&gt;0)), 7)</f>
+        <f t="array" ref="E2:E8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
         <v>1609</v>
       </c>
       <c r="F2" s="1" cm="1">
-        <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B100, B2:B100&lt;&gt;0), 1,-1), 7)</f>
+        <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0), 1,-1), 7)</f>
         <v>14746</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         <v>4192</v>
       </c>
       <c r="F4" s="1">
-        <v>10122</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>4254</v>
       </c>
       <c r="F5" s="1">
-        <v>9978</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>6514</v>
       </c>
       <c r="F6" s="1">
-        <v>9427</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>7502</v>
       </c>
       <c r="F7" s="1">
-        <v>7707</v>
+        <v>9427</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>7707</v>
       </c>
       <c r="F8" s="1">
-        <v>7502</v>
+        <v>7707</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -795,7 +795,7 @@
         <v>13113</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
         <v>9978</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -851,37 +851,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="1">
-        <v>10122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>10710</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0AFC04-9C9D-4DD8-9390-844C58D0B022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696F00B-B1BD-4100-BB23-CA8F9884F0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -114,53 +114,125 @@
     <t>30.06.2024</t>
   </si>
   <si>
-    <t>01.06.2024</t>
-  </si>
-  <si>
-    <t>02.06.2024</t>
-  </si>
-  <si>
-    <t>03.06.2024</t>
-  </si>
-  <si>
     <t>Топ (мин.)</t>
   </si>
   <si>
     <t>Топ (макс.)</t>
   </si>
   <si>
-    <t>04.06.2024</t>
-  </si>
-  <si>
-    <t>05.06.2024</t>
-  </si>
-  <si>
-    <t>06.06.2024</t>
-  </si>
-  <si>
-    <t>07.06.2024</t>
-  </si>
-  <si>
-    <t>08.06.2024</t>
-  </si>
-  <si>
-    <t>09.06.2024</t>
-  </si>
-  <si>
-    <t>10.06.2024</t>
-  </si>
-  <si>
-    <t>11.06.2024</t>
-  </si>
-  <si>
-    <t>12.06.2024</t>
+    <t>пн</t>
+  </si>
+  <si>
+    <t>вс</t>
+  </si>
+  <si>
+    <t>сб</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>чт</t>
+  </si>
+  <si>
+    <t>ср</t>
+  </si>
+  <si>
+    <t>вт</t>
+  </si>
+  <si>
+    <t>ДН</t>
+  </si>
+  <si>
+    <t>01.07.2024</t>
+  </si>
+  <si>
+    <t>02.07.2024</t>
+  </si>
+  <si>
+    <t>03.07.2024</t>
+  </si>
+  <si>
+    <t>04.07.2024</t>
+  </si>
+  <si>
+    <t>05.07.2024</t>
+  </si>
+  <si>
+    <t>06.07.2024</t>
+  </si>
+  <si>
+    <t>07.07.2024</t>
+  </si>
+  <si>
+    <t>08.07.2024</t>
+  </si>
+  <si>
+    <t>09.07.2024</t>
+  </si>
+  <si>
+    <t>10.07.2024</t>
+  </si>
+  <si>
+    <t>11.07.2024</t>
+  </si>
+  <si>
+    <t>12.07.2024</t>
+  </si>
+  <si>
+    <t>13.07.2024</t>
+  </si>
+  <si>
+    <t>14.07.2024</t>
+  </si>
+  <si>
+    <t>15.07.2024</t>
+  </si>
+  <si>
+    <t>16.07.2024</t>
+  </si>
+  <si>
+    <t>17.07.2024</t>
+  </si>
+  <si>
+    <t>18.07.2024</t>
+  </si>
+  <si>
+    <t>19.07.2024</t>
+  </si>
+  <si>
+    <t>20.07.2024</t>
+  </si>
+  <si>
+    <t>21.07.2024</t>
+  </si>
+  <si>
+    <t>22.07.2024</t>
+  </si>
+  <si>
+    <t>23.07.2024</t>
+  </si>
+  <si>
+    <t>24.07.2024</t>
+  </si>
+  <si>
+    <t>25.07.2024</t>
+  </si>
+  <si>
+    <t>26.07.2024</t>
+  </si>
+  <si>
+    <t>27.07.2024</t>
+  </si>
+  <si>
+    <t>28.07.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +244,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,6 +305,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -236,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -571,23 +662,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="2" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -595,380 +686,564 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9427</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3994</v>
-      </c>
-      <c r="D2" s="3">
+        <v>3618</v>
+      </c>
+      <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>103839</v>
-      </c>
-      <c r="E2" s="1" cm="1">
-        <f t="array" ref="E2:E8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
+        <v>119392</v>
+      </c>
+      <c r="F2" s="1" cm="1">
+        <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
         <v>1609</v>
       </c>
-      <c r="F2" s="1" cm="1">
-        <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0), 1,-1), 7)</f>
+      <c r="G2" s="1" cm="1">
+        <f t="array" ref="G2:G8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0), 1,-1), 7)</f>
         <v>14746</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>3985</v>
       </c>
-      <c r="E3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1">
         <v>3985</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>13113</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>7502</v>
       </c>
-      <c r="E4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
         <v>4192</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>10710</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>7707</v>
       </c>
-      <c r="E5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
         <v>4254</v>
       </c>
-      <c r="F5" s="1">
-        <v>10102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>10550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>1609</v>
       </c>
-      <c r="E6" s="1">
-        <v>6514</v>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>9978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5003</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>7502</v>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>9427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6514</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>7707</v>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>7707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7502</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>14746</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>4192</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>6514</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>4254</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>13113</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
         <v>9978</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>10102</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
         <v>10710</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10550</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5003</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696F00B-B1BD-4100-BB23-CA8F9884F0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CBFA01-502F-4490-BCA0-04959B8BBC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,11 +713,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3618</v>
+        <v>3650</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>119392</v>
+        <v>120462</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -790,7 +790,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>5003</v>
+        <v>6073</v>
       </c>
       <c r="G6" s="1">
         <v>10102</v>
@@ -1110,7 +1110,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="1">
-        <v>5003</v>
+        <v>6073</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>23</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CBFA01-502F-4490-BCA0-04959B8BBC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2946FC6F-B799-4570-B779-671F43C096CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,11 +713,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3650</v>
+        <v>3762</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>120462</v>
+        <v>127909</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -790,7 +790,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>6073</v>
+        <v>5855</v>
       </c>
       <c r="G6" s="1">
         <v>10102</v>
@@ -1110,7 +1110,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="1">
-        <v>6073</v>
+        <v>7665</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -1120,7 +1120,9 @@
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>5855</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2946FC6F-B799-4570-B779-671F43C096CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C478170-AD97-41A3-9FD2-5603DB7E4FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,11 +713,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3762</v>
+        <v>3265</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>127909</v>
+        <v>137133</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1131,7 +1131,9 @@
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1142,9 @@
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1153,9 @@
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1158,7 +1164,9 @@
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1">
+        <v>9224</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1167,7 +1175,9 @@
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1186,9 @@
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>23</v>
       </c>
@@ -1185,7 +1197,9 @@
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1194,7 +1208,9 @@
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>21</v>
       </c>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C478170-AD97-41A3-9FD2-5603DB7E4FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC395F1-128E-40ED-B89F-406A973C2A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,11 +713,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3265</v>
+        <v>3440</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>137133</v>
+        <v>144473</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -824,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>7502</v>
+        <v>7340</v>
       </c>
       <c r="G8" s="1">
         <v>9427</v>
@@ -1187,7 +1187,7 @@
         <v>53</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>7340</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>23</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC395F1-128E-40ED-B89F-406A973C2A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDADD2B-9575-4BB6-A45E-61EC0CE40A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -226,6 +226,27 @@
   </si>
   <si>
     <t>28.07.2024</t>
+  </si>
+  <si>
+    <t>29.07.2024</t>
+  </si>
+  <si>
+    <t>30.07.2024</t>
+  </si>
+  <si>
+    <t>31.07.2024</t>
+  </si>
+  <si>
+    <t>01.08.2024</t>
+  </si>
+  <si>
+    <t>02.08.2024</t>
+  </si>
+  <si>
+    <t>03.08.2024</t>
+  </si>
+  <si>
+    <t>04.08.2024</t>
   </si>
 </sst>
 </file>
@@ -665,7 +686,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,11 +734,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3440</v>
+        <v>3046</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>144473</v>
+        <v>149275</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -790,7 +811,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>5855</v>
+        <v>4802</v>
       </c>
       <c r="G6" s="1">
         <v>10102</v>
@@ -807,7 +828,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>6514</v>
+        <v>5855</v>
       </c>
       <c r="G7" s="1">
         <v>9978</v>
@@ -824,7 +845,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>7340</v>
+        <v>6514</v>
       </c>
       <c r="G8" s="1">
         <v>9427</v>
@@ -1216,39 +1237,81 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4802</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDADD2B-9575-4BB6-A45E-61EC0CE40A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720A375F-D6B3-4125-BB15-2E213A8CC998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,11 +734,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3046</v>
+        <v>3052</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>149275</v>
+        <v>149541</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -811,7 +811,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>4802</v>
+        <v>5068</v>
       </c>
       <c r="G6" s="1">
         <v>10102</v>
@@ -1274,7 +1274,7 @@
         <v>59</v>
       </c>
       <c r="B47" s="1">
-        <v>4802</v>
+        <v>5068</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>24</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720A375F-D6B3-4125-BB15-2E213A8CC998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E48E4A-4DAA-417B-BAEA-E66CE77AD2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,11 +734,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3052</v>
+        <v>3202</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>149541</v>
+        <v>156874</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1296,7 +1296,7 @@
         <v>61</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>7333</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>22</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E48E4A-4DAA-417B-BAEA-E66CE77AD2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C1C842-259C-4AE7-A5D7-75882ED09610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -247,6 +247,27 @@
   </si>
   <si>
     <t>04.08.2024</t>
+  </si>
+  <si>
+    <t>05.08.2024</t>
+  </si>
+  <si>
+    <t>06.08.2024</t>
+  </si>
+  <si>
+    <t>07.08.2024</t>
+  </si>
+  <si>
+    <t>08.08.2024</t>
+  </si>
+  <si>
+    <t>09.08.2024</t>
+  </si>
+  <si>
+    <t>10.08.2024</t>
+  </si>
+  <si>
+    <t>11.08.2024</t>
   </si>
 </sst>
 </file>
@@ -683,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,11 +755,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3202</v>
+        <v>3419</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>156874</v>
+        <v>167513</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -797,7 +818,7 @@
         <v>4254</v>
       </c>
       <c r="G5" s="1">
-        <v>10550</v>
+        <v>10639</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,7 +835,7 @@
         <v>5068</v>
       </c>
       <c r="G6" s="1">
-        <v>10102</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,7 +852,7 @@
         <v>5855</v>
       </c>
       <c r="G7" s="1">
-        <v>9978</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,7 +869,7 @@
         <v>6514</v>
       </c>
       <c r="G8" s="1">
-        <v>9427</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,21 +1328,109 @@
         <v>62</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>10639</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C1C842-259C-4AE7-A5D7-75882ED09610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E564F9F-3A7E-48E1-92C0-AAE1171925F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,11 +755,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3419</v>
+        <v>3032</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>167513</v>
+        <v>169795</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -781,7 +781,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="1">
-        <v>3985</v>
+        <v>2282</v>
       </c>
       <c r="G3" s="1">
         <v>13113</v>
@@ -798,7 +798,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>4192</v>
+        <v>3985</v>
       </c>
       <c r="G4" s="1">
         <v>10710</v>
@@ -815,7 +815,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>4254</v>
+        <v>4192</v>
       </c>
       <c r="G5" s="1">
         <v>10639</v>
@@ -832,7 +832,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>5068</v>
+        <v>4254</v>
       </c>
       <c r="G6" s="1">
         <v>10550</v>
@@ -849,7 +849,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>5855</v>
+        <v>5068</v>
       </c>
       <c r="G7" s="1">
         <v>10102</v>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>6514</v>
+        <v>5855</v>
       </c>
       <c r="G8" s="1">
         <v>9978</v>
@@ -1338,7 +1338,9 @@
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1">
+        <v>2282</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1347,7 +1349,9 @@
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="1"/>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,7 +1360,9 @@
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="1"/>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1371,9 @@
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="1"/>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1382,9 @@
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>23</v>
       </c>
@@ -1383,7 +1393,9 @@
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="1"/>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1404,9 @@
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>21</v>
       </c>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E564F9F-3A7E-48E1-92C0-AAE1171925F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85066350-6C63-4707-87A6-40BDC5935700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,11 +755,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3032</v>
+        <v>3117</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>169795</v>
+        <v>174538</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -849,7 +849,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>5068</v>
+        <v>4743</v>
       </c>
       <c r="G7" s="1">
         <v>10102</v>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>5855</v>
+        <v>5068</v>
       </c>
       <c r="G8" s="1">
         <v>9978</v>
@@ -1361,7 +1361,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>4743</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>25</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85066350-6C63-4707-87A6-40BDC5935700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD70DCA0-EF01-45A5-8A5F-183A28CAD9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,11 +755,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3117</v>
+        <v>3208</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>174538</v>
+        <v>179628</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -849,7 +849,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>4743</v>
+        <v>4749</v>
       </c>
       <c r="G7" s="1">
         <v>10102</v>
@@ -1361,7 +1361,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="1">
-        <v>4743</v>
+        <v>4749</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>25</v>
@@ -1405,7 +1405,7 @@
         <v>69</v>
       </c>
       <c r="B57" s="1">
-        <v>0</v>
+        <v>5084</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>21</v>
@@ -1414,37 +1414,51 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD70DCA0-EF01-45A5-8A5F-183A28CAD9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A7932A-FFC1-455E-8C05-EB2C2427CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -268,6 +268,27 @@
   </si>
   <si>
     <t>11.08.2024</t>
+  </si>
+  <si>
+    <t>12.08.2024</t>
+  </si>
+  <si>
+    <t>13.08.2024</t>
+  </si>
+  <si>
+    <t>14.08.2024</t>
+  </si>
+  <si>
+    <t>15.08.2024</t>
+  </si>
+  <si>
+    <t>16.08.2024</t>
+  </si>
+  <si>
+    <t>17.08.2024</t>
+  </si>
+  <si>
+    <t>18.08.2024</t>
   </si>
 </sst>
 </file>
@@ -707,7 +728,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,11 +776,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3208</v>
+        <v>3099</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>179628</v>
+        <v>182836</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -798,7 +819,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>3985</v>
+        <v>3199</v>
       </c>
       <c r="G4" s="1">
         <v>10710</v>
@@ -815,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>4192</v>
+        <v>3985</v>
       </c>
       <c r="G5" s="1">
         <v>10639</v>
@@ -832,7 +853,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>4254</v>
+        <v>4192</v>
       </c>
       <c r="G6" s="1">
         <v>10550</v>
@@ -849,7 +870,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>4749</v>
+        <v>4254</v>
       </c>
       <c r="G7" s="1">
         <v>10102</v>
@@ -866,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>5068</v>
+        <v>4749</v>
       </c>
       <c r="G8" s="1">
         <v>9978</v>
@@ -1405,56 +1426,76 @@
         <v>69</v>
       </c>
       <c r="B57" s="1">
-        <v>5084</v>
+        <v>5093</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3199</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>21</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A7932A-FFC1-455E-8C05-EB2C2427CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C586D-ACD7-4F7F-BBC7-E8702863DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,11 +776,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3099</v>
+        <v>3003</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>182836</v>
+        <v>189198</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -819,7 +819,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>3199</v>
+        <v>3985</v>
       </c>
       <c r="G4" s="1">
         <v>10710</v>
@@ -836,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>3985</v>
+        <v>4192</v>
       </c>
       <c r="G5" s="1">
         <v>10639</v>
@@ -853,7 +853,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>4192</v>
+        <v>4254</v>
       </c>
       <c r="G6" s="1">
         <v>10550</v>
@@ -870,7 +870,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>4254</v>
+        <v>4749</v>
       </c>
       <c r="G7" s="1">
         <v>10102</v>
@@ -887,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>4749</v>
+        <v>5068</v>
       </c>
       <c r="G8" s="1">
         <v>9978</v>
@@ -1459,7 +1459,7 @@
         <v>72</v>
       </c>
       <c r="B60" s="1">
-        <v>3199</v>
+        <v>9561</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>25</v>
@@ -1469,7 +1469,9 @@
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,7 +1480,9 @@
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="1"/>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
       </c>
@@ -1487,7 +1491,9 @@
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>22</v>
       </c>
@@ -1496,7 +1502,9 @@
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>21</v>
       </c>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C586D-ACD7-4F7F-BBC7-E8702863DB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EAC34F-E299-4F7A-A9B6-D08DDC4EB00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,11 +776,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3003</v>
+        <v>3086</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>189198</v>
+        <v>194442</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1470,7 +1470,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>5244</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>24</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EAC34F-E299-4F7A-A9B6-D08DDC4EB00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C17351-A2F7-472F-83FC-B85FACF22AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,11 +776,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3086</v>
+        <v>3196</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>194442</v>
+        <v>201339</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -822,7 +822,7 @@
         <v>3985</v>
       </c>
       <c r="G4" s="1">
-        <v>10710</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>4192</v>
       </c>
       <c r="G5" s="1">
-        <v>10639</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>4254</v>
       </c>
       <c r="G6" s="1">
-        <v>10550</v>
+        <v>10639</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>4749</v>
       </c>
       <c r="G7" s="1">
-        <v>10102</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>5068</v>
       </c>
       <c r="G8" s="1">
-        <v>9978</v>
+        <v>10438</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>72</v>
       </c>
       <c r="B60" s="1">
-        <v>9561</v>
+        <v>11264</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>25</v>
@@ -1470,7 +1470,7 @@
         <v>73</v>
       </c>
       <c r="B61" s="1">
-        <v>5244</v>
+        <v>10438</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>24</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C17351-A2F7-472F-83FC-B85FACF22AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCD4AE-CC24-444C-9881-5D65F1C246AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,11 +776,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3196</v>
+        <v>3250</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>201339</v>
+        <v>204729</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -819,7 +819,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>3985</v>
+        <v>3390</v>
       </c>
       <c r="G4" s="1">
         <v>11264</v>
@@ -836,7 +836,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>4192</v>
+        <v>3985</v>
       </c>
       <c r="G5" s="1">
         <v>10710</v>
@@ -853,7 +853,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>4254</v>
+        <v>4192</v>
       </c>
       <c r="G6" s="1">
         <v>10639</v>
@@ -870,7 +870,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>4749</v>
+        <v>4254</v>
       </c>
       <c r="G7" s="1">
         <v>10550</v>
@@ -887,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>5068</v>
+        <v>4749</v>
       </c>
       <c r="G8" s="1">
         <v>10438</v>
@@ -1481,7 +1481,7 @@
         <v>74</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>3390</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCD4AE-CC24-444C-9881-5D65F1C246AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86A5869-E72C-4D5B-8E62-E4B4DF61C96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -289,6 +289,27 @@
   </si>
   <si>
     <t>18.08.2024</t>
+  </si>
+  <si>
+    <t>19.08.2024</t>
+  </si>
+  <si>
+    <t>20.08.2024</t>
+  </si>
+  <si>
+    <t>21.08.2024</t>
+  </si>
+  <si>
+    <t>22.08.2024</t>
+  </si>
+  <si>
+    <t>23.08.2024</t>
+  </si>
+  <si>
+    <t>24.08.2024</t>
+  </si>
+  <si>
+    <t>25.08.2024</t>
   </si>
 </sst>
 </file>
@@ -725,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,11 +797,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3250</v>
+        <v>2981</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>204729</v>
+        <v>208690</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -836,7 +857,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>3985</v>
+        <v>3961</v>
       </c>
       <c r="G5" s="1">
         <v>10710</v>
@@ -853,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>4192</v>
+        <v>3985</v>
       </c>
       <c r="G6" s="1">
         <v>10639</v>
@@ -870,7 +891,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>4254</v>
+        <v>4192</v>
       </c>
       <c r="G7" s="1">
         <v>10550</v>
@@ -887,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>4749</v>
+        <v>4254</v>
       </c>
       <c r="G8" s="1">
         <v>10438</v>
@@ -1506,6 +1527,83 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3961</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86A5869-E72C-4D5B-8E62-E4B4DF61C96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94837381-4F2E-45A7-99C2-8A7630F1D911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,11 +797,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2981</v>
+        <v>3056</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>208690</v>
+        <v>213936</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -857,7 +857,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>3961</v>
+        <v>3963</v>
       </c>
       <c r="G5" s="1">
         <v>10710</v>
@@ -1579,7 +1579,7 @@
         <v>81</v>
       </c>
       <c r="B69" s="1">
-        <v>3961</v>
+        <v>3963</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>23</v>
@@ -1601,7 +1601,7 @@
         <v>83</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>5244</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>21</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94837381-4F2E-45A7-99C2-8A7630F1D911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E558FE6C-8B22-4639-BDE1-779103E6096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -310,6 +310,27 @@
   </si>
   <si>
     <t>25.08.2024</t>
+  </si>
+  <si>
+    <t>26.08.2024</t>
+  </si>
+  <si>
+    <t>27.08.2024</t>
+  </si>
+  <si>
+    <t>28.08.2024</t>
+  </si>
+  <si>
+    <t>29.08.2024</t>
+  </si>
+  <si>
+    <t>30.08.2024</t>
+  </si>
+  <si>
+    <t>31.08.2024</t>
+  </si>
+  <si>
+    <t>01.09.2024</t>
   </si>
 </sst>
 </file>
@@ -406,12 +427,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -746,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +819,7 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3056</v>
+        <v>2778</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
@@ -1604,6 +1626,83 @@
         <v>5244</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E558FE6C-8B22-4639-BDE1-779103E6096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA2AC77-5E99-4075-B593-E85050DF8F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -427,13 +427,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -770,21 +769,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -807,7 +806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,11 +818,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2778</v>
+        <v>2834</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>213936</v>
+        <v>218220</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -834,7 +833,7 @@
         <v>14746</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -851,7 +850,7 @@
         <v>13113</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,7 +867,7 @@
         <v>11264</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,7 +884,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,7 +901,7 @@
         <v>10639</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,7 +918,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -936,7 +935,7 @@
         <v>10438</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,7 +946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -958,7 +957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -969,7 +968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -980,7 +979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -991,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1112,7 +1111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1178,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -1299,7 +1298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -1629,80 +1628,80 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="5" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\books\abyss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA2AC77-5E99-4075-B593-E85050DF8F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7BFBC4-0ECA-4C57-B3D4-14456D6BF241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -769,21 +769,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,11 +818,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2834</v>
+        <v>2916</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>218220</v>
+        <v>224510</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -833,7 +833,7 @@
         <v>14746</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +850,7 @@
         <v>13113</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,7 +867,7 @@
         <v>11264</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,7 +884,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -901,7 +901,7 @@
         <v>10639</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,7 +918,7 @@
         <v>10550</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -935,7 +935,7 @@
         <v>10438</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,7 +946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -957,7 +957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -968,7 +968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -979,7 +979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -990,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -1661,18 +1661,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>6290</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7BFBC4-0ECA-4C57-B3D4-14456D6BF241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAB4343-F415-4EB5-801B-7263E07CFBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -331,6 +331,27 @@
   </si>
   <si>
     <t>01.09.2024</t>
+  </si>
+  <si>
+    <t>02.09.2024</t>
+  </si>
+  <si>
+    <t>03.09.2024</t>
+  </si>
+  <si>
+    <t>04.09.2024</t>
+  </si>
+  <si>
+    <t>05.09.2024</t>
+  </si>
+  <si>
+    <t>06.09.2024</t>
+  </si>
+  <si>
+    <t>07.09.2024</t>
+  </si>
+  <si>
+    <t>08.09.2024</t>
   </si>
 </sst>
 </file>
@@ -427,12 +448,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -767,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,11 +840,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2916</v>
+        <v>2709</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>224510</v>
+        <v>227535</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -861,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>3390</v>
+        <v>3025</v>
       </c>
       <c r="G4" s="1">
         <v>11264</v>
@@ -878,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>3963</v>
+        <v>3390</v>
       </c>
       <c r="G5" s="1">
         <v>10710</v>
@@ -895,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>3985</v>
+        <v>3963</v>
       </c>
       <c r="G6" s="1">
         <v>10639</v>
@@ -912,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>4192</v>
+        <v>3985</v>
       </c>
       <c r="G7" s="1">
         <v>10550</v>
@@ -929,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>4254</v>
+        <v>4192</v>
       </c>
       <c r="G8" s="1">
         <v>10438</v>
@@ -1702,6 +1724,83 @@
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="5">
+        <v>3025</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="5">
+        <v>0</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAB4343-F415-4EB5-801B-7263E07CFBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A963F62-3813-4F01-BE41-0A0E67765021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,11 +840,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2709</v>
+        <v>2773</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>227535</v>
+        <v>232959</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -883,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>3025</v>
+        <v>3143</v>
       </c>
       <c r="G4" s="1">
         <v>11264</v>
@@ -1743,7 +1743,7 @@
         <v>92</v>
       </c>
       <c r="B80" s="5">
-        <v>3025</v>
+        <v>3143</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>26</v>
@@ -1754,7 +1754,7 @@
         <v>93</v>
       </c>
       <c r="B81" s="5">
-        <v>0</v>
+        <v>5306</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>25</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A963F62-3813-4F01-BE41-0A0E67765021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353A8DB-1B6A-4D8A-A0C5-3D4AFEDDE0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -792,7 +792,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,11 +840,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2773</v>
+        <v>2803</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>232959</v>
+        <v>235475</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -883,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>3143</v>
+        <v>2516</v>
       </c>
       <c r="G4" s="1">
         <v>11264</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>3390</v>
+        <v>3143</v>
       </c>
       <c r="G5" s="1">
         <v>10710</v>
@@ -917,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>3963</v>
+        <v>3390</v>
       </c>
       <c r="G6" s="1">
         <v>10639</v>
@@ -934,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>3985</v>
+        <v>3963</v>
       </c>
       <c r="G7" s="1">
         <v>10550</v>
@@ -951,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>4192</v>
+        <v>3985</v>
       </c>
       <c r="G8" s="1">
         <v>10438</v>
@@ -1765,7 +1765,7 @@
         <v>94</v>
       </c>
       <c r="B82" s="5">
-        <v>0</v>
+        <v>2516</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>24</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353A8DB-1B6A-4D8A-A0C5-3D4AFEDDE0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E9AB04-78EE-4E8E-B346-5C5835EC7059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -352,6 +352,27 @@
   </si>
   <si>
     <t>08.09.2024</t>
+  </si>
+  <si>
+    <t>09.09.2024</t>
+  </si>
+  <si>
+    <t>10.09.2024</t>
+  </si>
+  <si>
+    <t>11.09.2024</t>
+  </si>
+  <si>
+    <t>12.09.2024</t>
+  </si>
+  <si>
+    <t>13.09.2024</t>
+  </si>
+  <si>
+    <t>14.09.2024</t>
+  </si>
+  <si>
+    <t>15.09.2024</t>
   </si>
 </sst>
 </file>
@@ -789,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,15 +861,15 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2803</v>
+        <v>2679</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>235475</v>
+        <v>243767</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
-        <v>1609</v>
+        <v>1463</v>
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2:G8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0), 1,-1), 7)</f>
@@ -866,7 +887,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="1">
-        <v>2282</v>
+        <v>1609</v>
       </c>
       <c r="G3" s="1">
         <v>13113</v>
@@ -883,7 +904,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>2516</v>
+        <v>2282</v>
       </c>
       <c r="G4" s="1">
         <v>11264</v>
@@ -900,7 +921,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>3143</v>
+        <v>2516</v>
       </c>
       <c r="G5" s="1">
         <v>10710</v>
@@ -917,7 +938,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>3390</v>
+        <v>3143</v>
       </c>
       <c r="G6" s="1">
         <v>10639</v>
@@ -934,7 +955,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>3963</v>
+        <v>3390</v>
       </c>
       <c r="G7" s="1">
         <v>10550</v>
@@ -951,7 +972,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>3985</v>
+        <v>3963</v>
       </c>
       <c r="G8" s="1">
         <v>10438</v>
@@ -1728,79 +1749,156 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="5">
-        <v>0</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="1">
         <v>3143</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="1">
         <v>5306</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="1">
         <v>2516</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="5">
-        <v>0</v>
-      </c>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="5">
-        <v>0</v>
-      </c>
-      <c r="C84" s="5" t="s">
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="5">
-        <v>0</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="5">
+        <v>1463</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="5">
+        <v>6829</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E9AB04-78EE-4E8E-B346-5C5835EC7059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B46CED-B188-4F17-9D6C-187C8F330E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,11 +861,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2679</v>
+        <v>2694</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>243767</v>
+        <v>245180</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1841,7 +1841,7 @@
         <v>99</v>
       </c>
       <c r="B87" s="5">
-        <v>6829</v>
+        <v>8242</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>26</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B46CED-B188-4F17-9D6C-187C8F330E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6AE2F1-A61A-43E6-8B1A-178589ABC36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,11 +861,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2694</v>
+        <v>2745</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>245180</v>
+        <v>249800</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1852,7 +1852,7 @@
         <v>100</v>
       </c>
       <c r="B88" s="5">
-        <v>0</v>
+        <v>4620</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>25</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6AE2F1-A61A-43E6-8B1A-178589ABC36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C6716E-DDB3-4587-AE1E-E2094595129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,11 +861,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2745</v>
+        <v>2779</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>249800</v>
+        <v>252923</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -938,7 +938,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>3143</v>
+        <v>3123</v>
       </c>
       <c r="G6" s="1">
         <v>10639</v>
@@ -955,7 +955,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>3390</v>
+        <v>3143</v>
       </c>
       <c r="G7" s="1">
         <v>10550</v>
@@ -972,7 +972,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>3963</v>
+        <v>3390</v>
       </c>
       <c r="G8" s="1">
         <v>10438</v>
@@ -1885,7 +1885,7 @@
         <v>103</v>
       </c>
       <c r="B91" s="5">
-        <v>0</v>
+        <v>3123</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>22</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C6716E-DDB3-4587-AE1E-E2094595129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03477570-76E4-4BEE-B328-213991B60FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -373,6 +373,27 @@
   </si>
   <si>
     <t>15.09.2024</t>
+  </si>
+  <si>
+    <t>16.09.2024</t>
+  </si>
+  <si>
+    <t>17.09.2024</t>
+  </si>
+  <si>
+    <t>18.09.2024</t>
+  </si>
+  <si>
+    <t>19.09.2024</t>
+  </si>
+  <si>
+    <t>20.09.2024</t>
+  </si>
+  <si>
+    <t>21.09.2024</t>
+  </si>
+  <si>
+    <t>22.09.2024</t>
   </si>
 </sst>
 </file>
@@ -810,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,11 +882,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2779</v>
+        <v>2700</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>252923</v>
+        <v>264594</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -907,7 +928,7 @@
         <v>2282</v>
       </c>
       <c r="G4" s="1">
-        <v>11264</v>
+        <v>11671</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,7 +945,7 @@
         <v>2516</v>
       </c>
       <c r="G5" s="1">
-        <v>10710</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -941,7 +962,7 @@
         <v>3123</v>
       </c>
       <c r="G6" s="1">
-        <v>10639</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -958,7 +979,7 @@
         <v>3143</v>
       </c>
       <c r="G7" s="1">
-        <v>10550</v>
+        <v>10639</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,7 +996,7 @@
         <v>3390</v>
       </c>
       <c r="G8" s="1">
-        <v>10438</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1899,6 +1920,83 @@
         <v>0</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="5">
+        <v>11671</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03477570-76E4-4BEE-B328-213991B60FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE949C-8923-44B3-A20A-F26FC38AC9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -490,13 +490,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -833,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,11 +881,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2700</v>
+        <v>2876</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>264594</v>
+        <v>281862</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -894,7 +893,7 @@
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2:G8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0), 1,-1), 7)</f>
-        <v>14746</v>
+        <v>17276</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -911,7 +910,7 @@
         <v>1609</v>
       </c>
       <c r="G3" s="1">
-        <v>13113</v>
+        <v>14746</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -928,7 +927,7 @@
         <v>2282</v>
       </c>
       <c r="G4" s="1">
-        <v>11671</v>
+        <v>13113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,7 +944,7 @@
         <v>2516</v>
       </c>
       <c r="G5" s="1">
-        <v>11264</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,7 +961,7 @@
         <v>3123</v>
       </c>
       <c r="G6" s="1">
-        <v>10710</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,7 +978,7 @@
         <v>3143</v>
       </c>
       <c r="G7" s="1">
-        <v>10639</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -996,7 +995,7 @@
         <v>3390</v>
       </c>
       <c r="G8" s="1">
-        <v>10550</v>
+        <v>10639</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1847,156 +1846,156 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="1">
         <v>1463</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="1">
         <v>8242</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="1">
         <v>4620</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="5">
-        <v>0</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="5">
-        <v>0</v>
-      </c>
-      <c r="C90" s="5" t="s">
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="1">
         <v>3123</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="5">
-        <v>0</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="5">
-        <v>0</v>
-      </c>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="5">
-        <v>0</v>
-      </c>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="5">
-        <v>11671</v>
-      </c>
-      <c r="C95" s="5" t="s">
+      <c r="B95" s="1">
+        <v>11663</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="5">
-        <v>0</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="B96" s="1">
+        <v>17276</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="5">
-        <v>0</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="5">
-        <v>0</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="5">
-        <v>0</v>
-      </c>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFE949C-8923-44B3-A20A-F26FC38AC9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38CD1D9-5563-4FFE-9FB1-064B72E248D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,11 +881,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2876</v>
+        <v>2913</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>281862</v>
+        <v>285513</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -893,7 +893,7 @@
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2:G8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0), 1,-1), 7)</f>
-        <v>17276</v>
+        <v>17291</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>108</v>
       </c>
       <c r="B96" s="1">
-        <v>17276</v>
+        <v>17291</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>24</v>
@@ -1971,7 +1971,7 @@
         <v>109</v>
       </c>
       <c r="B97" s="1">
-        <v>0</v>
+        <v>3636</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>23</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38CD1D9-5563-4FFE-9FB1-064B72E248D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327790C1-9BB5-4868-BB57-8926043A11DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -394,6 +394,27 @@
   </si>
   <si>
     <t>22.09.2024</t>
+  </si>
+  <si>
+    <t>23.09.2024</t>
+  </si>
+  <si>
+    <t>24.09.2024</t>
+  </si>
+  <si>
+    <t>25.09.2024</t>
+  </si>
+  <si>
+    <t>26.09.2024</t>
+  </si>
+  <si>
+    <t>27.09.2024</t>
+  </si>
+  <si>
+    <t>28.09.2024</t>
+  </si>
+  <si>
+    <t>29.09.2024</t>
   </si>
 </sst>
 </file>
@@ -490,12 +511,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -830,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,11 +903,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2913</v>
+        <v>2836</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>285513</v>
+        <v>297832</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -944,7 +966,7 @@
         <v>2516</v>
       </c>
       <c r="G5" s="1">
-        <v>11663</v>
+        <v>12319</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -961,7 +983,7 @@
         <v>3123</v>
       </c>
       <c r="G6" s="1">
-        <v>11264</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,7 +1000,7 @@
         <v>3143</v>
       </c>
       <c r="G7" s="1">
-        <v>10710</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,7 +1017,7 @@
         <v>3390</v>
       </c>
       <c r="G8" s="1">
-        <v>10639</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,6 +2018,83 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="5">
+        <v>12319</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327790C1-9BB5-4868-BB57-8926043A11DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9265B3F2-D02A-4494-83A2-5B12C95F8DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -511,13 +511,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -854,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,11 +902,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2836</v>
+        <v>2913</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>297832</v>
+        <v>305839</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -2022,79 +2021,79 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="5">
-        <v>0</v>
-      </c>
-      <c r="C100" s="5" t="s">
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="5">
-        <v>0</v>
-      </c>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="1">
         <v>12319</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="5">
-        <v>0</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="B103" s="1">
+        <v>8007</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B104" s="5">
-        <v>0</v>
-      </c>
-      <c r="C104" s="5" t="s">
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9265B3F2-D02A-4494-83A2-5B12C95F8DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BAAEF9-4358-4650-8449-385F0AE7716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="126">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -415,6 +415,27 @@
   </si>
   <si>
     <t>29.09.2024</t>
+  </si>
+  <si>
+    <t>30.09.2024</t>
+  </si>
+  <si>
+    <t>01.10.2024</t>
+  </si>
+  <si>
+    <t>02.10.2024</t>
+  </si>
+  <si>
+    <t>03.10.2024</t>
+  </si>
+  <si>
+    <t>04.10.2024</t>
+  </si>
+  <si>
+    <t>05.10.2024</t>
+  </si>
+  <si>
+    <t>06.10.2024</t>
   </si>
 </sst>
 </file>
@@ -511,12 +532,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -851,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,11 +924,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2913</v>
+        <v>2785</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>305839</v>
+        <v>311876</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -2094,6 +2116,83 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="5">
+        <v>6037</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BAAEF9-4358-4650-8449-385F0AE7716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94025A38-AFF6-46BA-A238-15A3F2B94B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -876,7 +876,7 @@
   <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,11 +924,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2785</v>
+        <v>2864</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>311876</v>
+        <v>320785</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -2135,7 +2135,7 @@
         <v>120</v>
       </c>
       <c r="B108" s="5">
-        <v>0</v>
+        <v>8909</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>26</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94025A38-AFF6-46BA-A238-15A3F2B94B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F271DD7-78DB-40F3-AAC4-91F49D4787B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,11 +924,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2864</v>
+        <v>2896</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>320785</v>
+        <v>324388</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -2146,7 +2146,7 @@
         <v>121</v>
       </c>
       <c r="B109" s="5">
-        <v>0</v>
+        <v>3603</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>25</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F271DD7-78DB-40F3-AAC4-91F49D4787B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423197DC-E139-42DD-9509-FAAC87AFF669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -532,13 +532,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -875,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,11 +923,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2896</v>
+        <v>2949</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>324388</v>
+        <v>330258</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -2120,79 +2119,79 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="1">
         <v>6037</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="1">
         <v>8909</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="1">
         <v>3603</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B110" s="5">
-        <v>0</v>
-      </c>
-      <c r="C110" s="5" t="s">
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="5">
-        <v>0</v>
-      </c>
-      <c r="C111" s="5" t="s">
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B112" s="5">
-        <v>0</v>
-      </c>
-      <c r="C112" s="5" t="s">
+      <c r="B112" s="1">
+        <v>5870</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="5">
-        <v>0</v>
-      </c>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423197DC-E139-42DD-9509-FAAC87AFF669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099ADBB2-BFA2-43CB-BA87-8CCF7F5385E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="133">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -436,6 +436,27 @@
   </si>
   <si>
     <t>06.10.2024</t>
+  </si>
+  <si>
+    <t>07.10.2024</t>
+  </si>
+  <si>
+    <t>08.10.2024</t>
+  </si>
+  <si>
+    <t>09.10.2024</t>
+  </si>
+  <si>
+    <t>10.10.2024</t>
+  </si>
+  <si>
+    <t>11.10.2024</t>
+  </si>
+  <si>
+    <t>12.10.2024</t>
+  </si>
+  <si>
+    <t>13.10.2024</t>
   </si>
 </sst>
 </file>
@@ -532,12 +553,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -872,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,11 +945,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2949</v>
+        <v>2902</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>330258</v>
+        <v>345319</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -952,7 +974,7 @@
         <v>1609</v>
       </c>
       <c r="G3" s="1">
-        <v>14746</v>
+        <v>15061</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,7 +991,7 @@
         <v>2282</v>
       </c>
       <c r="G4" s="1">
-        <v>13113</v>
+        <v>14746</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,7 +1008,7 @@
         <v>2516</v>
       </c>
       <c r="G5" s="1">
-        <v>12319</v>
+        <v>13113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1003,7 +1025,7 @@
         <v>3123</v>
       </c>
       <c r="G6" s="1">
-        <v>11663</v>
+        <v>12319</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1020,7 +1042,7 @@
         <v>3143</v>
       </c>
       <c r="G7" s="1">
-        <v>11264</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1037,7 +1059,7 @@
         <v>3390</v>
       </c>
       <c r="G8" s="1">
-        <v>10710</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2192,6 +2214,83 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="5">
+        <v>15061</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099ADBB2-BFA2-43CB-BA87-8CCF7F5385E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB08F6D0-7E58-4B56-AFCB-1E1AAB8BF46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB08F6D0-7E58-4B56-AFCB-1E1AAB8BF46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359665B5-DFEA-422B-939C-0507E98899E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -553,13 +554,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,11 +945,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2902</v>
+        <v>3042</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>345319</v>
+        <v>361990</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -974,7 +974,7 @@
         <v>1609</v>
       </c>
       <c r="G3" s="1">
-        <v>15061</v>
+        <v>16671</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>2282</v>
       </c>
       <c r="G4" s="1">
-        <v>14746</v>
+        <v>15061</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>2516</v>
       </c>
       <c r="G5" s="1">
-        <v>13113</v>
+        <v>14746</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
         <v>3123</v>
       </c>
       <c r="G6" s="1">
-        <v>12319</v>
+        <v>13113</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>3143</v>
       </c>
       <c r="G7" s="1">
-        <v>11663</v>
+        <v>12319</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>3390</v>
       </c>
       <c r="G8" s="1">
-        <v>11264</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2218,79 +2218,79 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B114" s="5">
-        <v>0</v>
-      </c>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="1">
         <v>15061</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B116" s="5">
-        <v>0</v>
-      </c>
-      <c r="C116" s="5" t="s">
+      <c r="B116" s="1">
+        <v>16671</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B117" s="5">
-        <v>0</v>
-      </c>
-      <c r="C117" s="5" t="s">
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B118" s="5">
-        <v>0</v>
-      </c>
-      <c r="C118" s="5" t="s">
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B119" s="5">
-        <v>0</v>
-      </c>
-      <c r="C119" s="5" t="s">
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B120" s="5">
-        <v>0</v>
-      </c>
-      <c r="C120" s="5" t="s">
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359665B5-DFEA-422B-939C-0507E98899E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920A3B6B-8825-4807-99B3-78F793AB0D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="140">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -458,6 +458,27 @@
   </si>
   <si>
     <t>13.10.2024</t>
+  </si>
+  <si>
+    <t>14.10.2024</t>
+  </si>
+  <si>
+    <t>15.10.2024</t>
+  </si>
+  <si>
+    <t>16.10.2024</t>
+  </si>
+  <si>
+    <t>17.10.2024</t>
+  </si>
+  <si>
+    <t>18.10.2024</t>
+  </si>
+  <si>
+    <t>19.10.2024</t>
+  </si>
+  <si>
+    <t>20.10.2024</t>
   </si>
 </sst>
 </file>
@@ -554,12 +575,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -894,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,11 +967,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3042</v>
+        <v>2934</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>361990</v>
+        <v>369665</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1022,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>3123</v>
+        <v>3048</v>
       </c>
       <c r="G6" s="1">
         <v>13113</v>
@@ -1039,7 +1061,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>3143</v>
+        <v>3123</v>
       </c>
       <c r="G7" s="1">
         <v>12319</v>
@@ -1056,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>3390</v>
+        <v>3143</v>
       </c>
       <c r="G8" s="1">
         <v>11663</v>
@@ -2277,7 +2299,7 @@
         <v>131</v>
       </c>
       <c r="B119" s="1">
-        <v>0</v>
+        <v>3048</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>22</v>
@@ -2291,6 +2313,83 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4627</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920A3B6B-8825-4807-99B3-78F793AB0D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD85E9E-491B-4913-9FD2-3A095E87054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="495" yWindow="0" windowWidth="15165" windowHeight="18525" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,11 +967,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2934</v>
+        <v>2995</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>369665</v>
+        <v>377382</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1010,7 +1010,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>2282</v>
+        <v>2252</v>
       </c>
       <c r="G4" s="1">
         <v>15061</v>
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>2516</v>
+        <v>2282</v>
       </c>
       <c r="G5" s="1">
         <v>14746</v>
@@ -1044,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="1">
-        <v>3048</v>
+        <v>2516</v>
       </c>
       <c r="G6" s="1">
         <v>13113</v>
@@ -1061,7 +1061,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>3123</v>
+        <v>3048</v>
       </c>
       <c r="G7" s="1">
         <v>12319</v>
@@ -1078,7 +1078,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>3143</v>
+        <v>3123</v>
       </c>
       <c r="G8" s="1">
         <v>11663</v>
@@ -2332,7 +2332,7 @@
         <v>134</v>
       </c>
       <c r="B122" s="1">
-        <v>4627</v>
+        <v>10092</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>26</v>
@@ -2343,7 +2343,7 @@
         <v>135</v>
       </c>
       <c r="B123" s="1">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>25</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD85E9E-491B-4913-9FD2-3A095E87054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED474D-0AD6-4187-900F-EF2604B2B4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="0" windowWidth="15165" windowHeight="18525" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,11 +967,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2995</v>
+        <v>3091</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>377382</v>
+        <v>389523</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1081,7 +1081,7 @@
         <v>3123</v>
       </c>
       <c r="G8" s="1">
-        <v>11663</v>
+        <v>12141</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>137</v>
       </c>
       <c r="B125" s="1">
-        <v>0</v>
+        <v>12141</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>23</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED474D-0AD6-4187-900F-EF2604B2B4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64366A9-99A6-41CB-8D87-BC2E38135187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="0" windowWidth="15165" windowHeight="18525" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="147">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -479,6 +479,27 @@
   </si>
   <si>
     <t>20.10.2024</t>
+  </si>
+  <si>
+    <t>21.10.2024</t>
+  </si>
+  <si>
+    <t>22.10.2024</t>
+  </si>
+  <si>
+    <t>23.10.2024</t>
+  </si>
+  <si>
+    <t>24.10.2024</t>
+  </si>
+  <si>
+    <t>25.10.2024</t>
+  </si>
+  <si>
+    <t>26.10.2024</t>
+  </si>
+  <si>
+    <t>27.10.2024</t>
   </si>
 </sst>
 </file>
@@ -916,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,11 +988,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3091</v>
+        <v>2995</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>389523</v>
+        <v>398303</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -2390,6 +2411,83 @@
         <v>0</v>
       </c>
       <c r="C127" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="5">
+        <v>8780</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="5">
+        <v>0</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="5">
+        <v>0</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64366A9-99A6-41CB-8D87-BC2E38135187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DE447E-A9DA-4CC0-AD05-47346ED620F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -596,13 +595,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -939,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,11 +986,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>2995</v>
+        <v>3038</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>398303</v>
+        <v>404089</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -2338,156 +2336,156 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122" s="1">
         <v>10092</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123" s="1">
         <v>2252</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125" s="1">
         <v>12141</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="1">
         <v>8780</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B129" s="5">
-        <v>0</v>
-      </c>
-      <c r="C129" s="5" t="s">
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B130" s="5">
-        <v>0</v>
-      </c>
-      <c r="C130" s="5" t="s">
+      <c r="B130" s="1">
+        <v>5786</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="5">
-        <v>0</v>
-      </c>
-      <c r="C131" s="5" t="s">
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B132" s="5">
-        <v>0</v>
-      </c>
-      <c r="C132" s="5" t="s">
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="5">
-        <v>0</v>
-      </c>
-      <c r="C133" s="5" t="s">
+      <c r="B133" s="1">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B134" s="5">
-        <v>0</v>
-      </c>
-      <c r="C134" s="5" t="s">
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DE447E-A9DA-4CC0-AD05-47346ED620F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF9FB60-143C-4A8C-997B-705A31D276F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -499,6 +499,27 @@
   </si>
   <si>
     <t>27.10.2024</t>
+  </si>
+  <si>
+    <t>28.10.2024</t>
+  </si>
+  <si>
+    <t>29.10.2024</t>
+  </si>
+  <si>
+    <t>30.10.2024</t>
+  </si>
+  <si>
+    <t>31.10.2024</t>
+  </si>
+  <si>
+    <t>01.11.2024</t>
+  </si>
+  <si>
+    <t>02.11.2024</t>
+  </si>
+  <si>
+    <t>03.11.2024</t>
   </si>
 </sst>
 </file>
@@ -935,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,11 +1007,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3038</v>
+        <v>3062</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>404089</v>
+        <v>428614</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -998,7 +1019,7 @@
       </c>
       <c r="G2" s="1" cm="1">
         <f t="array" ref="G2:G8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0), 1,-1), 7)</f>
-        <v>17291</v>
+        <v>24525</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,7 +1036,7 @@
         <v>1609</v>
       </c>
       <c r="G3" s="1">
-        <v>16671</v>
+        <v>17291</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,7 +1053,7 @@
         <v>2252</v>
       </c>
       <c r="G4" s="1">
-        <v>15061</v>
+        <v>16671</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1049,7 +1070,7 @@
         <v>2282</v>
       </c>
       <c r="G5" s="1">
-        <v>14746</v>
+        <v>15061</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,7 +1087,7 @@
         <v>2516</v>
       </c>
       <c r="G6" s="1">
-        <v>13113</v>
+        <v>14746</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1083,7 +1104,7 @@
         <v>3048</v>
       </c>
       <c r="G7" s="1">
-        <v>12319</v>
+        <v>13113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +1121,7 @@
         <v>3123</v>
       </c>
       <c r="G8" s="1">
-        <v>12141</v>
+        <v>12319</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2486,6 +2507,83 @@
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" s="1">
+        <v>24525</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF9FB60-143C-4A8C-997B-705A31D276F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1230FA-57E3-4F06-9147-E71B2055DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,11 +1007,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3062</v>
+        <v>3123</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>428614</v>
+        <v>437212</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1101,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>3048</v>
+        <v>2588</v>
       </c>
       <c r="G7" s="1">
         <v>13113</v>
@@ -1118,7 +1118,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="1">
-        <v>3123</v>
+        <v>3048</v>
       </c>
       <c r="G8" s="1">
         <v>12319</v>
@@ -2537,7 +2537,7 @@
         <v>149</v>
       </c>
       <c r="B137" s="1">
-        <v>0</v>
+        <v>2588</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>25</v>
@@ -2559,7 +2559,7 @@
         <v>151</v>
       </c>
       <c r="B139" s="1">
-        <v>0</v>
+        <v>6010</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>23</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1230FA-57E3-4F06-9147-E71B2055DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768E6A58-1FC9-450A-8BB3-AEF1A5D75245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,11 +1007,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3123</v>
+        <v>3146</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>437212</v>
+        <v>440493</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -2570,7 +2570,7 @@
         <v>152</v>
       </c>
       <c r="B140" s="1">
-        <v>0</v>
+        <v>3281</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>22</v>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768E6A58-1FC9-450A-8BB3-AEF1A5D75245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315BBB52-38B4-4818-906D-B9B6472F79D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20985" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20880" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="156">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>03.11.2024</t>
+  </si>
+  <si>
+    <t>04.11.2024</t>
+  </si>
+  <si>
+    <t>05.11.2024</t>
   </si>
 </sst>
 </file>
@@ -616,12 +622,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -956,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,11 +1014,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3146</v>
+        <v>3139</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>440493</v>
+        <v>445715</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -2585,6 +2592,28 @@
       </c>
       <c r="C141" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="5">
+        <v>5222</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="5">
+        <v>0</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/abyss/plan.xlsx
+++ b/abyss/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\books\abyss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315BBB52-38B4-4818-906D-B9B6472F79D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D29F89A-1454-43AF-89CF-EF3E7DF9284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="25800" windowHeight="20880" tabRatio="579" xr2:uid="{1ED03AE6-64B8-409A-BFBE-8C1FECB2AD6D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="158">
   <si>
     <t>17.06.2024</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>05.11.2024</t>
+  </si>
+  <si>
+    <t>06.11.2024</t>
+  </si>
+  <si>
+    <t>07.11.2024</t>
   </si>
 </sst>
 </file>
@@ -622,13 +628,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -963,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EC36EE-3D4A-4882-B871-75EB8E153E6F}">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,11 +1021,11 @@
       </c>
       <c r="D2" s="4">
         <f>ROUND(AVERAGE(B2:B201),0)</f>
-        <v>3139</v>
+        <v>3183</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(B2:B200)</f>
-        <v>445715</v>
+        <v>458380</v>
       </c>
       <c r="F2" s="1" cm="1">
         <f t="array" ref="F2:F8">_xlfn.TAKE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(B2:B200, B2:B200&lt;&gt;0)), 7)</f>
@@ -1128,7 +1135,7 @@
         <v>3048</v>
       </c>
       <c r="G8" s="1">
-        <v>12319</v>
+        <v>12665</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2615,6 +2622,43 @@
       <c r="C143" s="5" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="5">
+        <v>0</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="5">
+        <v>12665</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
